--- a/Фопи/ФОПи/ФОП Мельницький/Шт. розклад 2019.xlsx
+++ b/Фопи/ФОПи/ФОП Мельницький/Шт. розклад 2019.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nastia\GitHub\Фопи\ФОПи\ФОП Мельницький\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="11280" windowHeight="4695"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="11280" windowHeight="4692"/>
   </bookViews>
   <sheets>
-    <sheet name="2021" sheetId="7" r:id="rId1"/>
-    <sheet name="2020" sheetId="6" r:id="rId2"/>
-    <sheet name="2019" sheetId="5" r:id="rId3"/>
-    <sheet name="2016" sheetId="1" r:id="rId4"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId5"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId6"/>
-    <sheet name="Лист4" sheetId="4" r:id="rId7"/>
+    <sheet name="2022" sheetId="8" r:id="rId1"/>
+    <sheet name="2021" sheetId="7" r:id="rId2"/>
+    <sheet name="2020" sheetId="6" r:id="rId3"/>
+    <sheet name="2019" sheetId="5" r:id="rId4"/>
+    <sheet name="2016" sheetId="1" r:id="rId5"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId6"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId7"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="29">
   <si>
     <t>"ЗАТВЕРДЖУЮ"</t>
   </si>
@@ -101,12 +107,18 @@
   </si>
   <si>
     <t>01 січня 2021р.</t>
+  </si>
+  <si>
+    <t>з 01 січня 2022р.</t>
+  </si>
+  <si>
+    <t>01 січня 2022р.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -511,6 +523,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -543,13 +561,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -558,7 +579,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Офіс">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -596,9 +617,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Офіс">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -633,7 +654,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -668,7 +689,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Офіс">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -842,111 +863,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="2" customWidth="1"/>
     <col min="6" max="7" width="12" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-    </row>
-    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="4"/>
       <c r="F3" s="7"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="9" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="32" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="9" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36" t="s">
+      <c r="D9" s="37"/>
+      <c r="E9" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
+    <row r="10" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="39"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+    </row>
+    <row r="11" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -963,17 +984,17 @@
         <v>1</v>
       </c>
       <c r="F11" s="14">
-        <v>6060</v>
+        <v>6565</v>
       </c>
       <c r="G11" s="15">
         <v>1</v>
       </c>
       <c r="J11" s="2">
         <f>E11*F11</f>
-        <v>6060</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>2</v>
       </c>
@@ -990,17 +1011,17 @@
         <v>1</v>
       </c>
       <c r="F12" s="14">
-        <v>6300</v>
+        <v>6825</v>
       </c>
       <c r="G12" s="15">
         <v>1</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" ref="J12:J16" si="0">E12*F12</f>
-        <v>6300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J12:J15" si="0">E12*F12</f>
+        <v>6825</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>3</v>
       </c>
@@ -1017,17 +1038,17 @@
         <v>2</v>
       </c>
       <c r="F13" s="14">
-        <v>6060</v>
+        <v>6565</v>
       </c>
       <c r="G13" s="15">
         <v>1</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>12120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>4</v>
       </c>
@@ -1044,74 +1065,47 @@
         <v>1</v>
       </c>
       <c r="F14" s="14">
-        <v>6060</v>
+        <v>6565</v>
       </c>
       <c r="G14" s="15">
         <v>1</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>6060</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>5</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C15" s="23">
-        <v>3231</v>
+        <v>4222</v>
       </c>
       <c r="D15" s="23">
-        <v>24713</v>
+        <v>20062</v>
       </c>
       <c r="E15" s="19">
         <v>1</v>
       </c>
       <c r="F15" s="14">
-        <v>6060</v>
+        <v>6565</v>
       </c>
       <c r="G15" s="15">
         <v>1</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>6060</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>6</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="23">
-        <v>4222</v>
-      </c>
-      <c r="D16" s="23">
-        <v>20062</v>
-      </c>
-      <c r="E16" s="19">
-        <v>1</v>
-      </c>
-      <c r="F16" s="14">
-        <v>6060</v>
-      </c>
-      <c r="G16" s="15">
-        <v>1</v>
-      </c>
+        <v>6565</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J16" s="2">
-        <f t="shared" si="0"/>
-        <v>6060</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J17" s="2">
-        <f>SUM(J11:J16)</f>
-        <v>42660</v>
+        <f>SUM(J11:J15)</f>
+        <v>39650</v>
       </c>
     </row>
   </sheetData>
@@ -1136,109 +1130,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="2" customWidth="1"/>
     <col min="6" max="7" width="12" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-    </row>
-    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="4"/>
       <c r="F3" s="7"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-    </row>
-    <row r="9" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="32" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="9" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36" t="s">
+      <c r="D9" s="37"/>
+      <c r="E9" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
+    <row r="10" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="39"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+    </row>
+    <row r="11" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -1255,17 +1249,17 @@
         <v>1</v>
       </c>
       <c r="F11" s="14">
-        <v>4770</v>
+        <v>6060</v>
       </c>
       <c r="G11" s="15">
         <v>1</v>
       </c>
       <c r="J11" s="2">
         <f>E11*F11</f>
-        <v>4770</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>2</v>
       </c>
@@ -1282,17 +1276,17 @@
         <v>1</v>
       </c>
       <c r="F12" s="14">
-        <v>4960</v>
+        <v>6300</v>
       </c>
       <c r="G12" s="15">
         <v>1</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" ref="J12:J16" si="0">E12*F12</f>
-        <v>4960</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>3</v>
       </c>
@@ -1309,17 +1303,17 @@
         <v>2</v>
       </c>
       <c r="F13" s="14">
-        <v>4770</v>
+        <v>6060</v>
       </c>
       <c r="G13" s="15">
         <v>1</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>9540</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>4</v>
       </c>
@@ -1336,17 +1330,17 @@
         <v>1</v>
       </c>
       <c r="F14" s="14">
-        <v>4770</v>
+        <v>6060</v>
       </c>
       <c r="G14" s="15">
         <v>1</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>4770</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>5</v>
       </c>
@@ -1363,17 +1357,17 @@
         <v>1</v>
       </c>
       <c r="F15" s="14">
-        <v>2385</v>
+        <v>6060</v>
       </c>
       <c r="G15" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>2385</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>6</v>
       </c>
@@ -1390,20 +1384,20 @@
         <v>1</v>
       </c>
       <c r="F16" s="14">
-        <v>4770</v>
+        <v>6060</v>
       </c>
       <c r="G16" s="15">
         <v>1</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>4770</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J17" s="2">
         <f>SUM(J11:J16)</f>
-        <v>31195</v>
+        <v>42660</v>
       </c>
     </row>
   </sheetData>
@@ -1426,111 +1420,111 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="2" customWidth="1"/>
     <col min="6" max="7" width="12" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-    </row>
-    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="4"/>
       <c r="F3" s="7"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="9" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="32" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="9" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36" t="s">
+      <c r="D9" s="37"/>
+      <c r="E9" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
+    <row r="10" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="39"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+    </row>
+    <row r="11" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -1547,17 +1541,17 @@
         <v>1</v>
       </c>
       <c r="F11" s="14">
-        <v>4216</v>
+        <v>4770</v>
       </c>
       <c r="G11" s="15">
         <v>1</v>
       </c>
       <c r="J11" s="2">
         <f>E11*F11</f>
-        <v>4216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>2</v>
       </c>
@@ -1574,17 +1568,17 @@
         <v>1</v>
       </c>
       <c r="F12" s="14">
-        <v>4382</v>
+        <v>4960</v>
       </c>
       <c r="G12" s="15">
         <v>1</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" ref="J12:J17" si="0">E12*F12</f>
-        <v>4382</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J12:J16" si="0">E12*F12</f>
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>3</v>
       </c>
@@ -1601,42 +1595,44 @@
         <v>2</v>
       </c>
       <c r="F13" s="14">
-        <v>4216</v>
+        <v>4770</v>
       </c>
       <c r="G13" s="15">
         <v>1</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>8432</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>4</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="22">
-        <v>3225</v>
-      </c>
-      <c r="D14" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="C14" s="23">
+        <v>3231</v>
+      </c>
+      <c r="D14" s="23">
+        <v>24713</v>
+      </c>
       <c r="E14" s="19">
         <v>1</v>
       </c>
       <c r="F14" s="14">
-        <v>2191</v>
+        <v>4770</v>
       </c>
       <c r="G14" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>5</v>
       </c>
@@ -1653,74 +1649,47 @@
         <v>1</v>
       </c>
       <c r="F15" s="14">
-        <v>4216</v>
+        <v>2385</v>
       </c>
       <c r="G15" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>4216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>6</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C16" s="23">
-        <v>3231</v>
+        <v>4222</v>
       </c>
       <c r="D16" s="23">
-        <v>24713</v>
+        <v>20062</v>
       </c>
       <c r="E16" s="19">
         <v>1</v>
       </c>
       <c r="F16" s="14">
-        <v>2108</v>
+        <v>4770</v>
       </c>
       <c r="G16" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>7</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="23">
-        <v>4222</v>
-      </c>
-      <c r="D17" s="23">
-        <v>20062</v>
-      </c>
-      <c r="E17" s="19">
-        <v>1</v>
-      </c>
-      <c r="F17" s="14">
-        <v>4216</v>
-      </c>
-      <c r="G17" s="15">
-        <v>1</v>
-      </c>
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J17" s="2">
-        <f t="shared" si="0"/>
-        <v>4216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J18" s="2">
-        <f>SUM(J11:J17)</f>
-        <v>29761</v>
+        <f>SUM(J11:J16)</f>
+        <v>31195</v>
       </c>
     </row>
   </sheetData>
@@ -1743,68 +1712,385 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="12" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="9" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+    </row>
+    <row r="11" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="22">
+        <v>20281</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14">
+        <v>4216</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <f>E11*F11</f>
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>2</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="21">
+        <v>20459</v>
+      </c>
+      <c r="E12" s="19">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14">
+        <v>4382</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" ref="J12:J17" si="0">E12*F12</f>
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="21">
+        <v>20459</v>
+      </c>
+      <c r="E13" s="19">
+        <v>2</v>
+      </c>
+      <c r="F13" s="14">
+        <v>4216</v>
+      </c>
+      <c r="G13" s="15">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>8432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>4</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="22">
+        <v>3225</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="19">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14">
+        <v>2191</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>5</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="23">
+        <v>3231</v>
+      </c>
+      <c r="D15" s="23">
+        <v>24713</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14">
+        <v>4216</v>
+      </c>
+      <c r="G15" s="15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>6</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="23">
+        <v>3231</v>
+      </c>
+      <c r="D16" s="23">
+        <v>24713</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14">
+        <v>2108</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>7</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="23">
+        <v>4222</v>
+      </c>
+      <c r="D17" s="23">
+        <v>20062</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14">
+        <v>4216</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="2">
+        <f>SUM(J11:J17)</f>
+        <v>29761</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="2" customWidth="1"/>
     <col min="4" max="5" width="12" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-    </row>
-    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="4"/>
       <c r="D3" s="7"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -1821,7 +2107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -1842,7 +2128,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>2</v>
       </c>
@@ -1863,7 +2149,7 @@
         <v>3910</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>3</v>
       </c>
@@ -1884,7 +2170,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>4</v>
       </c>
@@ -1905,7 +2191,7 @@
         <v>3910</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>5</v>
       </c>
@@ -1926,7 +2212,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>6</v>
       </c>
@@ -1947,7 +2233,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>7</v>
       </c>
@@ -1968,7 +2254,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>8</v>
       </c>
@@ -1989,7 +2275,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H18" s="2">
         <f>SUM(H10:H17)</f>
         <v>26695</v>
@@ -2008,26 +2294,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2040,7 +2313,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
